--- a/data/trans_dic/P27F_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27F_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir atención fisioterapéutica por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir atención fisioterapéutica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>10,32%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>6,35%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,11</t>
+          <t>0,81; 8,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 16,0</t>
+          <t>1,77; 11,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,73</t>
+          <t>0,0; 4,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5,73; 17,94</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,53; 9,37</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 9,11</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 9,96</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 8,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 5,25</t>
         </is>
       </c>
     </row>
@@ -611,12 +748,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,33%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12,32%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 10,91</t>
+          <t>2,21; 10,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 19,45</t>
+          <t>2,14; 11,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,06</t>
+          <t>2,66; 10,73</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 19,11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,37; 12,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,01</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 13,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 10,59</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 6,47</t>
         </is>
       </c>
     </row>
@@ -661,12 +858,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,9%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>9,49%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>7,31%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,03%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -679,17 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,35</t>
+          <t>3,0; 9,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 13,91</t>
+          <t>1,73; 7,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,19</t>
+          <t>0,66; 4,64</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 13,55</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 10,01</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,71; 6,02</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5,2; 9,96</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 7,34</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 4,35</t>
         </is>
       </c>
     </row>
@@ -711,12 +968,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>16,77%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>12,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 13,2</t>
+          <t>4,81; 12,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,14; 22,27</t>
+          <t>1,06; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,72</t>
+          <t>0,68; 4,23</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12,15; 22,13</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 15,7</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 7,0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9,6; 15,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 9,12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 4,75</t>
         </is>
       </c>
     </row>
@@ -761,12 +1078,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>4,84%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>12,52%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,01%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,77; 13,74</t>
+          <t>4,78; 13,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,26</t>
+          <t>2,48; 9,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 14,07</t>
+          <t>0,48; 5,07</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8,64; 17,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7,31; 15,94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2,96; 10,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 14,14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 10,99</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 6,35</t>
         </is>
       </c>
     </row>
@@ -811,12 +1188,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>5,37%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>3,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,82</t>
+          <t>1,12; 6,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,3</t>
+          <t>0,74; 7,35</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 10,02</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 9,46</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 5,34</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 6,46</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 7,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 4,74</t>
         </is>
       </c>
     </row>
@@ -861,12 +1298,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>10,92%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>8,1%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1346,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,82</t>
+          <t>3,99; 6,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,04</t>
+          <t>3,13; 5,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 9,5</t>
+          <t>1,75; 3,73</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9,18; 12,98</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 8,97</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 4,45</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 9,33</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 6,91</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 3,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir atención fisioterapéutica por motivos económicos cuando la necesitaba (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2263</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4219</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3859</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21894</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>26113</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>339; 3381</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>778; 5006</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20969</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2145; 6708</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>592; 3611</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8778; 43098</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2907; 7913</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2105; 7020</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11735; 49232</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>32714</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5814</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7330</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8358</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6286</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>40044</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1101; 5096</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1042; 5751</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15442; 62196</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3488; 9023</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2000; 5647</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2063; 20277</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5443; 12837</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4043; 9991</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21699; 70247</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3227</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2359</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12930</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5116</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>23987</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8343</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36916</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1806; 5621</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1043; 4423</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4458; 31520</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3393; 7306</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1927; 5488</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12276; 43173</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5930; 11372</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3718; 8458</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22042; 60740</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4975</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1648</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13708</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8755</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5571</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>26284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39992</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2803; 7458</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>592; 3355</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4439; 27728</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6341; 11554</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3736; 8339</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14685; 46021</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10607; 17505</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4992; 9924</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>24147; 62363</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2182</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>10147</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5166</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>29008</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9794</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39155</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2114; 5944</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1119; 4084</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2354; 25122</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4216; 8626</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3409; 7428</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>15233; 53712</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7033; 13149</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4950; 10083</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21297; 64049</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15201</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3392</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3252</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12747</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4621</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>27947</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1462</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>512; 2947</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4125; 41085</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1586; 6328</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1530; 5976</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3041; 38232</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1742; 7101</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2555; 7877</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10843; 60446</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>15880</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12659</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88918</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>33043</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22607</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>121249</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>48923</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35266</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>210167</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12036; 21063</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9386; 17538</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>60137; 127958</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>27788; 39292</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>18043; 27080</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>89777; 159612</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41870; 56368</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>29491; 41582</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>163195; 262853</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>